--- a/doc/stats.xlsx
+++ b/doc/stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="2020" windowWidth="25040" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="18980" yWindow="1580" windowWidth="19380" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Coaches</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
   </si>
 </sst>
 </file>
@@ -390,20 +414,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C27"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:8">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:8">
       <c r="B3">
         <v>417</v>
       </c>
@@ -411,55 +435,109 @@
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>408</v>
       </c>
       <c r="C4">
         <v>646</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>439</v>
       </c>
       <c r="C5">
         <v>596</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>424</v>
       </c>
       <c r="C6">
         <v>627</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>420</v>
       </c>
       <c r="C7">
         <v>606</v>
       </c>
-    </row>
-    <row r="8" spans="2:3">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>441</v>
       </c>
       <c r="C8">
         <v>664</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>423</v>
       </c>
       <c r="C9">
         <v>641</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>429</v>
       </c>
@@ -467,7 +545,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>438</v>
       </c>
@@ -475,7 +553,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>402</v>
       </c>
@@ -483,7 +561,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>427</v>
       </c>
@@ -491,7 +569,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>466</v>
       </c>
@@ -499,7 +577,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:8">
       <c r="B15">
         <v>415</v>
       </c>
@@ -507,7 +585,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:8">
       <c r="B16">
         <v>458</v>
       </c>

--- a/doc/stats.xlsx
+++ b/doc/stats.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="1580" windowWidth="19380" windowHeight="17820" tabRatio="500"/>
+    <workbookView xWindow="14880" yWindow="1560" windowWidth="19380" windowHeight="17820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -417,7 +417,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D3" sqref="D3:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -434,6 +434,9 @@
       <c r="C3">
         <v>593</v>
       </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4">
@@ -442,6 +445,9 @@
       <c r="C4">
         <v>646</v>
       </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -459,6 +465,9 @@
       <c r="C5">
         <v>596</v>
       </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
@@ -476,6 +485,9 @@
       <c r="C6">
         <v>627</v>
       </c>
+      <c r="D6">
+        <v>82</v>
+      </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
@@ -493,6 +505,9 @@
       <c r="C7">
         <v>606</v>
       </c>
+      <c r="D7">
+        <v>76</v>
+      </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
@@ -510,6 +525,9 @@
       <c r="C8">
         <v>664</v>
       </c>
+      <c r="D8">
+        <v>79</v>
+      </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
@@ -527,6 +545,9 @@
       <c r="C9">
         <v>641</v>
       </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
       <c r="F9" t="s">
         <v>8</v>
       </c>
@@ -544,6 +565,9 @@
       <c r="C10">
         <v>583</v>
       </c>
+      <c r="D10">
+        <v>83</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11">
@@ -552,6 +576,9 @@
       <c r="C11">
         <v>611</v>
       </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12">
@@ -560,6 +587,9 @@
       <c r="C12">
         <v>629</v>
       </c>
+      <c r="D12">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13">
@@ -568,6 +598,9 @@
       <c r="C13">
         <v>649</v>
       </c>
+      <c r="D13">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14">
@@ -576,6 +609,9 @@
       <c r="C14">
         <v>628</v>
       </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15">
@@ -584,6 +620,9 @@
       <c r="C15">
         <v>695</v>
       </c>
+      <c r="D15">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16">
@@ -592,64 +631,88 @@
       <c r="C16">
         <v>636</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>435</v>
       </c>
       <c r="C17">
         <v>606</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="D17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>488</v>
       </c>
       <c r="C18">
         <v>628</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="D18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>444</v>
       </c>
       <c r="C19">
         <v>591</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="D19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>412</v>
       </c>
       <c r="C20">
         <v>636</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="D20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21">
         <v>437</v>
       </c>
       <c r="C21">
         <v>614</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="D21">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22">
         <v>418</v>
       </c>
       <c r="C22">
         <v>584</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="D22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23">
         <v>482</v>
       </c>
       <c r="C23">
         <v>621</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="D23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24">
         <f>SUM(B3:B23)</f>
         <v>9123</v>
@@ -658,8 +721,12 @@
         <f>SUM(C3:C23)</f>
         <v>13084</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="D24">
+        <f>AVERAGE(D3:D23)</f>
+        <v>83.952380952380949</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25">
         <f>AVERAGE(B3:B23)</f>
         <v>434.42857142857144</v>
@@ -668,8 +735,12 @@
         <f>AVERAGE(C3:C23)</f>
         <v>623.04761904761904</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="D25">
+        <f>MAX(D3:D23)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26">
         <f>MIN(B3:B23)</f>
         <v>402</v>
@@ -678,8 +749,12 @@
         <f>MIN(C3:C23)</f>
         <v>583</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="D26">
+        <f>MIN(D3:D24)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27">
         <f>MAX(B3:B23)</f>
         <v>488</v>
